--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1189.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1189.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162845399425852</v>
+        <v>1.17354691028595</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.437618732452393</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.365114450454712</v>
       </c>
       <c r="E1">
-        <v>1.069849258305158</v>
+        <v>1.23620343208313</v>
       </c>
     </row>
   </sheetData>
